--- a/OrangeHRM_Test_Scenarios.xlsx
+++ b/OrangeHRM_Test_Scenarios.xlsx
@@ -3659,8 +3659,8 @@
   <sheetPr/>
   <dimension ref="A2:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="4"/>
